--- a/data/trans_orig/P41E_2023_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023_R-Provincia-trans_orig.xlsx
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3106</v>
+        <v>3694</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.005983003300123489</v>
+        <v>0.005983003300123488</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0188844908613315</v>
+        <v>0.02246033411042945</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3298</v>
+        <v>3665</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003060744105937126</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01026021315819135</v>
+        <v>0.01140063968590514</v>
       </c>
     </row>
     <row r="5">
@@ -817,16 +817,16 @@
         <v>163465</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>161343</v>
+        <v>160755</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>164449</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9940169966998766</v>
+        <v>0.9940169966998764</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9811155091386686</v>
+        <v>0.9775396658895704</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>320473</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>318159</v>
+        <v>317792</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>321457</v>
@@ -847,7 +847,7 @@
         <v>0.996939255894063</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9897397868418076</v>
+        <v>0.9885993603140942</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -945,16 +945,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9476</v>
+        <v>9795</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02131206496380854</v>
+        <v>0.02131206496380853</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07775550626139031</v>
+        <v>0.08036654263471149</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -963,19 +963,19 @@
         <v>2072</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5504</v>
+        <v>5509</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0176156176271678</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0049541776008124</v>
+        <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04678938636328618</v>
+        <v>0.04682441765857717</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -984,19 +984,19 @@
         <v>4670</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1414</v>
+        <v>1517</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11347</v>
+        <v>11371</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01949650614354441</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005903331330797632</v>
+        <v>0.006333367595089443</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04737331149525668</v>
+        <v>0.04747355918167</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +1013,7 @@
         <v>119278</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>112399</v>
+        <v>112080</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>121875</v>
@@ -1022,7 +1022,7 @@
         <v>0.9786879350361914</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9222444937386095</v>
+        <v>0.9196334573652882</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1034,19 +1034,19 @@
         <v>115570</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>112138</v>
+        <v>112133</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>117059</v>
+        <v>117642</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9823843823728321</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9532106136367141</v>
+        <v>0.9531755823414242</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9950458223991876</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>246</v>
@@ -1055,19 +1055,19 @@
         <v>234846</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>228169</v>
+        <v>228145</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>238102</v>
+        <v>237999</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9805034938564555</v>
+        <v>0.9805034938564556</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9526266885047433</v>
+        <v>0.9525264408183302</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9940966686692023</v>
+        <v>0.9936666324049105</v>
       </c>
     </row>
     <row r="9">
@@ -1159,19 +1159,19 @@
         <v>23228</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15838</v>
+        <v>15559</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33013</v>
+        <v>33543</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1230122227634059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08387455044141631</v>
+        <v>0.08239502533825081</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1748320927847181</v>
+        <v>0.1776376958776015</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1180,19 +1180,19 @@
         <v>25361</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18394</v>
+        <v>18765</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33564</v>
+        <v>33831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1285659995195625</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09325039761719608</v>
+        <v>0.09513162852642351</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1701517910331556</v>
+        <v>0.1715091051056497</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1201,19 +1201,19 @@
         <v>48589</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37712</v>
+        <v>37888</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60218</v>
+        <v>60554</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1258497263485341</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09767866205819006</v>
+        <v>0.0981330020660092</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1559699612708954</v>
+        <v>0.1568392524355099</v>
       </c>
     </row>
     <row r="11">
@@ -1230,19 +1230,19 @@
         <v>165601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>155816</v>
+        <v>155286</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>172991</v>
+        <v>173270</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.876987777236594</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8251679072152819</v>
+        <v>0.8223623041223984</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9161254495585835</v>
+        <v>0.9176049746617492</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>254</v>
@@ -1251,19 +1251,19 @@
         <v>171896</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>163693</v>
+        <v>163426</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>178863</v>
+        <v>178492</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8714340004804376</v>
+        <v>0.8714340004804375</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8298482089668443</v>
+        <v>0.8284908948943502</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9067496023828037</v>
+        <v>0.9048683714735765</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>436</v>
@@ -1272,19 +1272,19 @@
         <v>337498</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>325869</v>
+        <v>325533</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>348375</v>
+        <v>348199</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8741502736514658</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8440300387291054</v>
+        <v>0.8431607475644909</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9023213379418099</v>
+        <v>0.9018669979339911</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>3300</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1169</v>
+        <v>1200</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7231</v>
+        <v>7632</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01689351325880864</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005982414618291278</v>
+        <v>0.0061403753524982</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03701654586480188</v>
+        <v>0.03906664664288514</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1397,19 +1397,19 @@
         <v>15161</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10137</v>
+        <v>10588</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21199</v>
+        <v>21313</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0802564986834632</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05366131237793122</v>
+        <v>0.05604975797914252</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1122179465900177</v>
+        <v>0.1128237441737366</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -1418,19 +1418,19 @@
         <v>18461</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12974</v>
+        <v>13139</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26269</v>
+        <v>25729</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04804307099134041</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03376396595342482</v>
+        <v>0.03419263401468697</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06836076001276946</v>
+        <v>0.06695664075228853</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>192058</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>188127</v>
+        <v>187726</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>194189</v>
+        <v>194158</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9831064867411914</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9629834541351979</v>
+        <v>0.9609333533571148</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9940175853817087</v>
+        <v>0.9938596246475019</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>244</v>
@@ -1468,19 +1468,19 @@
         <v>173745</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>167707</v>
+        <v>167593</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>178769</v>
+        <v>178318</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9197435013165367</v>
+        <v>0.9197435013165368</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8877820534099822</v>
+        <v>0.8871762558262635</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9463386876220685</v>
+        <v>0.9439502420208576</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>399</v>
@@ -1489,19 +1489,19 @@
         <v>365803</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>357995</v>
+        <v>358535</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>371290</v>
+        <v>371125</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9519569290086597</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9316392399872305</v>
+        <v>0.9330433592477113</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9662360340465753</v>
+        <v>0.9658073659853128</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>6590</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3349</v>
+        <v>3362</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11957</v>
+        <v>11862</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07500866909253746</v>
+        <v>0.07500866909253749</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03811341243965237</v>
+        <v>0.03826585085974259</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1360931621776953</v>
+        <v>0.1350108341526936</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1614,19 +1614,19 @@
         <v>1448</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4283</v>
+        <v>4365</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0150494969093605</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004298325754663129</v>
+        <v>0.00424021825515909</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04450674471481484</v>
+        <v>0.04535563161080394</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1635,19 +1635,19 @@
         <v>8038</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4392</v>
+        <v>4552</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13477</v>
+        <v>14284</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0436648740742768</v>
+        <v>0.04366487407427681</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02385673052338477</v>
+        <v>0.02472769877653297</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07320680008565103</v>
+        <v>0.07759404847624055</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>81267</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75900</v>
+        <v>75995</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>84508</v>
+        <v>84495</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9249913309074624</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8639068378223048</v>
+        <v>0.8649891658473066</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9618865875603478</v>
+        <v>0.9617341491402575</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>199</v>
@@ -1685,19 +1685,19 @@
         <v>94786</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>91951</v>
+        <v>91869</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>95820</v>
+        <v>95826</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9849505030906394</v>
+        <v>0.9849505030906395</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9554932552851853</v>
+        <v>0.9546443683891961</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.995701674245337</v>
+        <v>0.9957597817448409</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>310</v>
@@ -1706,19 +1706,19 @@
         <v>176053</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>170614</v>
+        <v>169807</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>179699</v>
+        <v>179539</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9563351259257231</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9267931999143491</v>
+        <v>0.9224059515237596</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9761432694766153</v>
+        <v>0.9752723012234671</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>25574</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18739</v>
+        <v>18620</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34322</v>
+        <v>34294</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1374855013547489</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1007398458015207</v>
+        <v>0.1001014598067389</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1845175470352756</v>
+        <v>0.1843635190610372</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -1831,19 +1831,19 @@
         <v>25826</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19669</v>
+        <v>19292</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33472</v>
+        <v>33324</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1708930312544684</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1301545170356627</v>
+        <v>0.127656125837028</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2214879017606509</v>
+        <v>0.2205062693723705</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>98</v>
@@ -1852,19 +1852,19 @@
         <v>51400</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41708</v>
+        <v>41453</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61767</v>
+        <v>62607</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1524607003341437</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1237127975376674</v>
+        <v>0.1229570017057006</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1832123325686888</v>
+        <v>0.1857039025395878</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>160437</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>151689</v>
+        <v>151717</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>167272</v>
+        <v>167391</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8625144986452512</v>
+        <v>0.8625144986452511</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8154824529647244</v>
+        <v>0.8156364809389629</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8992601541984793</v>
+        <v>0.8998985401932613</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>216</v>
@@ -1902,19 +1902,19 @@
         <v>125297</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>117651</v>
+        <v>117799</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>131454</v>
+        <v>131831</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8291069687455316</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7785120982393494</v>
+        <v>0.7794937306276294</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8698454829643375</v>
+        <v>0.8723438741629718</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>421</v>
@@ -1923,19 +1923,19 @@
         <v>285734</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>275367</v>
+        <v>274527</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>295426</v>
+        <v>295681</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8475392996658562</v>
+        <v>0.8475392996658563</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8167876674313113</v>
+        <v>0.8142960974604125</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8762872024623325</v>
+        <v>0.8770429982942994</v>
       </c>
     </row>
     <row r="21">
@@ -2027,19 +2027,19 @@
         <v>5490</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1874</v>
+        <v>1949</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11308</v>
+        <v>11753</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01685931414816836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005753839418791954</v>
+        <v>0.005984070958942158</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03472224245028764</v>
+        <v>0.03609022791575307</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2048,19 +2048,19 @@
         <v>5787</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2636</v>
+        <v>2692</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12518</v>
+        <v>13492</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.01657071622843882</v>
+        <v>0.01657071622843881</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007546758729539166</v>
+        <v>0.007707726359516946</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0358449058717051</v>
+        <v>0.03863370905468681</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -2069,19 +2069,19 @@
         <v>11277</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6248</v>
+        <v>6264</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19492</v>
+        <v>19143</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01670997656839186</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009257782405120844</v>
+        <v>0.009281654758107315</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02888128851292939</v>
+        <v>0.02836506735834097</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>320170</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>314352</v>
+        <v>313907</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>323786</v>
+        <v>323711</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9831406858518318</v>
+        <v>0.9831406858518316</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9652777575497125</v>
+        <v>0.9639097720842477</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9942461605812081</v>
+        <v>0.994015929041058</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>429</v>
@@ -2119,19 +2119,19 @@
         <v>343438</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>336707</v>
+        <v>335733</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>346589</v>
+        <v>346533</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9834292837715612</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9641550941282949</v>
+        <v>0.9613662909453119</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.992453241270461</v>
+        <v>0.992292273640483</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>706</v>
@@ -2140,19 +2140,19 @@
         <v>663608</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>655393</v>
+        <v>655742</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>668637</v>
+        <v>668621</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9832900234316081</v>
+        <v>0.983290023431608</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9711187114870696</v>
+        <v>0.9716349326416588</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9907422175948791</v>
+        <v>0.9907183452418927</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>119645</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>103220</v>
+        <v>103893</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>135704</v>
+        <v>137024</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3018746546001035</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2604328913411328</v>
+        <v>0.2621293598019954</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.342391566734655</v>
+        <v>0.3457232479308034</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>189</v>
@@ -2265,19 +2265,19 @@
         <v>124000</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>109079</v>
+        <v>108365</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>138269</v>
+        <v>140158</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3511338255943289</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3088809083671362</v>
+        <v>0.3068591048652101</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.391539493711777</v>
+        <v>0.3968887258270105</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>347</v>
@@ -2286,19 +2286,19 @@
         <v>243645</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>221301</v>
+        <v>220744</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>267850</v>
+        <v>267011</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3250846352704214</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2952716919666543</v>
+        <v>0.2945286645516533</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3573802931469807</v>
+        <v>0.3562599163242606</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>276696</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>260637</v>
+        <v>259317</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>293121</v>
+        <v>292448</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6981253453998966</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6576084332653451</v>
+        <v>0.6542767520691967</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7395671086588677</v>
+        <v>0.7378706401980046</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>281</v>
@@ -2336,19 +2336,19 @@
         <v>229142</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>214873</v>
+        <v>212984</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>244063</v>
+        <v>244777</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6488661744056711</v>
+        <v>0.648866174405671</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6084605062882232</v>
+        <v>0.6031112741729897</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.691119091632864</v>
+        <v>0.6931408951347898</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>535</v>
@@ -2357,19 +2357,19 @@
         <v>505838</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>481633</v>
+        <v>482472</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>528182</v>
+        <v>528739</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6749153647295786</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6426197068530191</v>
+        <v>0.6437400836757393</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7047283080333456</v>
+        <v>0.7054713354483457</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>186425</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>164746</v>
+        <v>164231</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>210442</v>
+        <v>207558</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1123763608639739</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09930786266499657</v>
+        <v>0.09899777185499622</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1268534113145427</v>
+        <v>0.1251152631308332</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>334</v>
@@ -2482,19 +2482,19 @@
         <v>200639</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>181412</v>
+        <v>178536</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>223460</v>
+        <v>224133</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1240059624496388</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1121225238714363</v>
+        <v>0.1103449110749032</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1381104799665015</v>
+        <v>0.1385264958297466</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>587</v>
@@ -2503,19 +2503,19 @@
         <v>387064</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>357175</v>
+        <v>353815</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>421046</v>
+        <v>416369</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1181184777338513</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1089973780903134</v>
+        <v>0.1079719806333817</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1284883934276689</v>
+        <v>0.1270612610235386</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>1472513</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1448496</v>
+        <v>1451380</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1494192</v>
+        <v>1494707</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.887623639136026</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.873146588685457</v>
+        <v>0.8748847368691668</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9006921373350032</v>
+        <v>0.9010022281450039</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2070</v>
@@ -2553,19 +2553,19 @@
         <v>1417339</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1394518</v>
+        <v>1393845</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1436566</v>
+        <v>1439442</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.875994037550361</v>
+        <v>0.8759940375503611</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8618895200334985</v>
+        <v>0.8614735041702534</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8878774761285637</v>
+        <v>0.8896550889250968</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3516</v>
@@ -2574,19 +2574,19 @@
         <v>2889852</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2855870</v>
+        <v>2860547</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2919741</v>
+        <v>2923101</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8818815222661487</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.871511606572331</v>
+        <v>0.8729387389764612</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8910026219096866</v>
+        <v>0.8920280193666181</v>
       </c>
     </row>
     <row r="30">
